--- a/com.apartments/src/test/resources/test_data1.xlsx
+++ b/com.apartments/src/test/resources/test_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\IdeaProjects\SeleniumBootcamp\com.apartments\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82487C33-D666-4162-A576-C299C8F8B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E416D-5AA3-44DE-9226-74187D0E9BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="2772" windowWidth="17280" windowHeight="9468" xr2:uid="{82912450-18AA-47D7-85FC-EABF981FAF1E}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9468" xr2:uid="{82912450-18AA-47D7-85FC-EABF981FAF1E}"/>
   </bookViews>
   <sheets>
     <sheet name="doSearch" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t xml:space="preserve">7189 holderman st </t>
+    <t>990 Plumway Ln</t>
   </si>
   <si>
-    <t>7289 holderman st</t>
+    <t>Lewis Center Ohio</t>
   </si>
   <si>
-    <t>oh</t>
+    <t>20 Olentangy Meadows Dr        Lewis</t>
   </si>
 </sst>
 </file>
@@ -399,25 +399,28 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
